--- a/src/main/java/com/diningedge/testData/Data.xlsx
+++ b/src/main/java/com/diningedge/testData/Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\DiningEdgeByMohit\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B0C6C-537B-42B5-8827-4AF9AFE41A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFE0F7-1496-48F3-91C8-C8641A89B2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Vendor</t>
   </si>
@@ -43,6 +44,51 @@
   </si>
   <si>
     <t>Cheney Testing</t>
+  </si>
+  <si>
+    <t>US Foods</t>
+  </si>
+  <si>
+    <t>Sysco</t>
+  </si>
+  <si>
+    <t>PFG</t>
+  </si>
+  <si>
+    <t>Hillcrest</t>
+  </si>
+  <si>
+    <t>Automation US Food</t>
+  </si>
+  <si>
+    <t>Automation Hill</t>
+  </si>
+  <si>
+    <t>US Food Testing</t>
+  </si>
+  <si>
+    <t>Automation Sysco</t>
+  </si>
+  <si>
+    <t>Automation PFG</t>
+  </si>
+  <si>
+    <t>Sysco Testing</t>
+  </si>
+  <si>
+    <t>PFG Testing</t>
+  </si>
+  <si>
+    <t>Kellys Testing</t>
+  </si>
+  <si>
+    <t>Automation Kelley</t>
+  </si>
+  <si>
+    <t>Hill Testing</t>
+  </si>
+  <si>
+    <t>Kellys Foods Inc.</t>
   </si>
 </sst>
 </file>
@@ -101,7 +147,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -386,14 +432,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -422,4 +468,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A59CB-E8B6-4B38-A785-5610FAD9253F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/diningedge/testData/Data.xlsx
+++ b/src/main/java/com/diningedge/testData/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\DiningEdgeByMohit\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFE0F7-1496-48F3-91C8-C8641A89B2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4219A704-3BE4-42E7-B76E-8A3BA94D3EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Vendor</t>
   </si>
@@ -429,10 +429,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A59CB-E8B6-4B38-A785-5610FAD9253F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,49 +518,6 @@
         <v>5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A59CB-E8B6-4B38-A785-5610FAD9253F}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>

--- a/src/main/java/com/diningedge/testData/Data.xlsx
+++ b/src/main/java/com/diningedge/testData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\DiningEdgeByMohit\DiningEdge\src\main\java\com\diningedge\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4219A704-3BE4-42E7-B76E-8A3BA94D3EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32BB66-5300-4FFD-B123-883848C498C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Vendor</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,17 +462,6 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
